--- a/IPL/Rajasthan Royals/Steven Smith (c).xlsx
+++ b/IPL/Rajasthan Royals/Steven Smith (c).xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,13 +408,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
+        <v>31</v>
+      </c>
+      <c r="D2" t="str">
+        <v>20</v>
+      </c>
+      <c r="E2" t="str">
         <v>5</v>
-      </c>
-      <c r="D2" t="str">
-        <v>6</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D3" t="str">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="str">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="str">
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -468,13 +468,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C5" t="str">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D5" t="str">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E5" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C6" t="str">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D6" t="str">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E6" t="str">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -508,13 +508,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C7" t="str">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
@@ -528,16 +528,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C8" t="str">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8" t="str">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E8" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -548,16 +548,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C9" t="str">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D9" t="str">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E9" t="str">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -568,16 +568,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C10" t="str">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D10" t="str">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E10" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -588,16 +588,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C11" t="str">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D11" t="str">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E11" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -608,16 +608,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C12" t="str">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D12" t="str">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E12" t="str">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -628,16 +628,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C13" t="str">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D13" t="str">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E13" t="str">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -648,21 +648,41 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C14" t="str">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="str">
         <v>7</v>
       </c>
       <c r="E14" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="str">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Steven Smith (c)</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="C15" t="str">
+        <v>24</v>
+      </c>
+      <c r="D15" t="str">
+        <v>17</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F15"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/IPL/Rajasthan Royals/Steven Smith (c).xlsx
+++ b/IPL/Rajasthan Royals/Steven Smith (c).xlsx
@@ -408,13 +408,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D2" t="str">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E2" t="str">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,16 +428,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D3" t="str">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -448,16 +448,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C4" t="str">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D4" t="str">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E4" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -468,13 +468,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C5" t="str">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" t="str">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C6" t="str">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D6" t="str">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E6" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -508,13 +508,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C7" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <v>4</v>
       </c>
       <c r="E7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <v>0</v>
@@ -528,16 +528,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C8" t="str">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D8" t="str">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" t="str">
+        <v>7</v>
+      </c>
+      <c r="F8" t="str">
         <v>2</v>
-      </c>
-      <c r="F8" t="str">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C9" t="str">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="str">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="str">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C10" t="str">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="D10" t="str">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E10" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -588,10 +588,10 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C11" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="str">
         <v>1</v>
@@ -608,13 +608,13 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C12" t="str">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D12" t="str">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E12" t="str">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" t="str">
         <v>1</v>
@@ -628,16 +628,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C13" t="str">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D13" t="str">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E13" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F13" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -668,16 +668,16 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C15" t="str">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="str">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E15" t="str">
         <v>2</v>
       </c>
       <c r="F15" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
